--- a/data/pca/factorExposure/factorExposure_2016-02-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.007435819978182678</v>
+        <v>0.01306144980724385</v>
       </c>
       <c r="C2">
-        <v>-0.0511810893907897</v>
+        <v>0.04202454561136289</v>
       </c>
       <c r="D2">
-        <v>0.08168351741624297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.09670415780487004</v>
+      </c>
+      <c r="E2">
+        <v>-0.1181219872268094</v>
+      </c>
+      <c r="F2">
+        <v>0.02281440670348645</v>
+      </c>
+      <c r="G2">
+        <v>0.03929388464103381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02673461610048274</v>
+        <v>0.01648719844679392</v>
       </c>
       <c r="C3">
-        <v>-0.1023546976698089</v>
+        <v>0.05047827712858696</v>
       </c>
       <c r="D3">
-        <v>0.1055526909685481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07887939142023906</v>
+      </c>
+      <c r="E3">
+        <v>-0.1105914780945342</v>
+      </c>
+      <c r="F3">
+        <v>-0.05174160814597611</v>
+      </c>
+      <c r="G3">
+        <v>0.09087344261443882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06038773079241854</v>
+        <v>0.06100759418434471</v>
       </c>
       <c r="C4">
-        <v>-0.0635513853249095</v>
+        <v>0.06566956895424422</v>
       </c>
       <c r="D4">
-        <v>0.08055585997638096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1068222305994284</v>
+      </c>
+      <c r="E4">
+        <v>-0.08702513603987339</v>
+      </c>
+      <c r="F4">
+        <v>-0.03010736077731687</v>
+      </c>
+      <c r="G4">
+        <v>-0.03714230074218722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04407319633116213</v>
+        <v>0.04097472145724165</v>
       </c>
       <c r="C6">
-        <v>-0.04434287877650064</v>
+        <v>0.03102364609706885</v>
       </c>
       <c r="D6">
-        <v>0.08103670051754244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1050767403332917</v>
+      </c>
+      <c r="E6">
+        <v>-0.0738027609425141</v>
+      </c>
+      <c r="F6">
+        <v>-0.02044284871303785</v>
+      </c>
+      <c r="G6">
+        <v>0.003800658629072189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02903511299194688</v>
+        <v>0.02172862725636835</v>
       </c>
       <c r="C7">
-        <v>-0.03784304008665896</v>
+        <v>0.03781990215800918</v>
       </c>
       <c r="D7">
-        <v>0.0537638514260508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.07536841212413255</v>
+      </c>
+      <c r="E7">
+        <v>-0.06742908784004067</v>
+      </c>
+      <c r="F7">
+        <v>-0.02304174828615804</v>
+      </c>
+      <c r="G7">
+        <v>-0.05161656434090821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.007584164068465871</v>
+        <v>0.006528866112637023</v>
       </c>
       <c r="C8">
-        <v>-0.0489418669658377</v>
+        <v>0.04024337107232909</v>
       </c>
       <c r="D8">
-        <v>0.05388530750574741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.06586226242138428</v>
+      </c>
+      <c r="E8">
+        <v>-0.05441530603584833</v>
+      </c>
+      <c r="F8">
+        <v>-0.01691985854288034</v>
+      </c>
+      <c r="G8">
+        <v>0.01203221927957593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04123675015402047</v>
+        <v>0.04372995923060183</v>
       </c>
       <c r="C9">
-        <v>-0.05081949923366543</v>
+        <v>0.0557955101532136</v>
       </c>
       <c r="D9">
-        <v>0.07044624252540384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.09294869630875154</v>
+      </c>
+      <c r="E9">
+        <v>-0.06546220841764487</v>
+      </c>
+      <c r="F9">
+        <v>-0.007665299675528333</v>
+      </c>
+      <c r="G9">
+        <v>-0.03969526501604839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08865785848661155</v>
+        <v>0.113027629718271</v>
       </c>
       <c r="C10">
-        <v>0.1787201472459358</v>
+        <v>-0.1929086837536177</v>
       </c>
       <c r="D10">
-        <v>0.002865829351480424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01062288199220623</v>
+      </c>
+      <c r="E10">
+        <v>-0.04658504167654464</v>
+      </c>
+      <c r="F10">
+        <v>-0.01415746170659999</v>
+      </c>
+      <c r="G10">
+        <v>-0.03662005710688223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04248275015904705</v>
+        <v>0.03567231350345683</v>
       </c>
       <c r="C11">
-        <v>-0.0533146778745491</v>
+        <v>0.04810852062520722</v>
       </c>
       <c r="D11">
-        <v>0.04348387807749664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05107986771168841</v>
+      </c>
+      <c r="E11">
+        <v>-0.02814764692295967</v>
+      </c>
+      <c r="F11">
+        <v>-0.01173131254201305</v>
+      </c>
+      <c r="G11">
+        <v>-0.03955793220753422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04590468464843333</v>
+        <v>0.0382131017865731</v>
       </c>
       <c r="C12">
-        <v>-0.04940234695869974</v>
+        <v>0.0470608078130034</v>
       </c>
       <c r="D12">
-        <v>0.02796592195901706</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04456030505765921</v>
+      </c>
+      <c r="E12">
+        <v>-0.0398953803874988</v>
+      </c>
+      <c r="F12">
+        <v>-0.005515220313714475</v>
+      </c>
+      <c r="G12">
+        <v>-0.03600484280233765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01608529120334566</v>
+        <v>0.01666369804398377</v>
       </c>
       <c r="C13">
-        <v>-0.05593894645734335</v>
+        <v>0.04468545758801796</v>
       </c>
       <c r="D13">
-        <v>0.06552131820409925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1007895698870233</v>
+      </c>
+      <c r="E13">
+        <v>-0.1122924568475091</v>
+      </c>
+      <c r="F13">
+        <v>-0.02780772801225707</v>
+      </c>
+      <c r="G13">
+        <v>-0.04340643129542003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0143221641860909</v>
+        <v>0.007870483219201594</v>
       </c>
       <c r="C14">
-        <v>-0.03281359080464928</v>
+        <v>0.03011644559730782</v>
       </c>
       <c r="D14">
-        <v>0.03688575677311323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0601737519880711</v>
+      </c>
+      <c r="E14">
+        <v>-0.07219069935044645</v>
+      </c>
+      <c r="F14">
+        <v>0.003353794371586299</v>
+      </c>
+      <c r="G14">
+        <v>-0.03234851757497865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0004396377242993704</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.007108172824044075</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01649168834722258</v>
+      </c>
+      <c r="E15">
+        <v>-0.008015436232553966</v>
+      </c>
+      <c r="F15">
+        <v>0.001078493432965242</v>
+      </c>
+      <c r="G15">
+        <v>0.002852777189751687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04195272709562844</v>
+        <v>0.03535605124965122</v>
       </c>
       <c r="C16">
-        <v>-0.05227790023232279</v>
+        <v>0.04721284837719197</v>
       </c>
       <c r="D16">
-        <v>0.03564840255796067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05046723991549209</v>
+      </c>
+      <c r="E16">
+        <v>-0.04186309361336628</v>
+      </c>
+      <c r="F16">
+        <v>0.005022193502715716</v>
+      </c>
+      <c r="G16">
+        <v>-0.0309240705135238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.0198943526581554</v>
+        <v>0.01414775935079676</v>
       </c>
       <c r="C19">
-        <v>-0.04992310138279745</v>
+        <v>0.03826777306806416</v>
       </c>
       <c r="D19">
-        <v>0.1171917680617486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1146931134737263</v>
+      </c>
+      <c r="E19">
+        <v>-0.1154667188285885</v>
+      </c>
+      <c r="F19">
+        <v>0.01680366714953584</v>
+      </c>
+      <c r="G19">
+        <v>-0.0003234303567522709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02062959662964263</v>
+        <v>0.01638619354698385</v>
       </c>
       <c r="C20">
-        <v>-0.05001153683251088</v>
+        <v>0.04134757011360327</v>
       </c>
       <c r="D20">
-        <v>0.05317069358947345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07302295486337336</v>
+      </c>
+      <c r="E20">
+        <v>-0.08590227173116884</v>
+      </c>
+      <c r="F20">
+        <v>-0.004070570157139694</v>
+      </c>
+      <c r="G20">
+        <v>-0.02008146221882098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01707604027830992</v>
+        <v>0.01405172577601255</v>
       </c>
       <c r="C21">
-        <v>-0.05629429550585013</v>
+        <v>0.04523076793939833</v>
       </c>
       <c r="D21">
-        <v>0.06669849825025241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1009521067825731</v>
+      </c>
+      <c r="E21">
+        <v>-0.1427004990137146</v>
+      </c>
+      <c r="F21">
+        <v>0.007366813262867579</v>
+      </c>
+      <c r="G21">
+        <v>-0.06243320127970892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.001157936727022264</v>
+        <v>0.004941693457116258</v>
       </c>
       <c r="C22">
-        <v>-0.01378346382243035</v>
+        <v>0.03188374699532966</v>
       </c>
       <c r="D22">
-        <v>0.03893158363057558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.08933261319437555</v>
+      </c>
+      <c r="E22">
+        <v>-0.05640850511635409</v>
+      </c>
+      <c r="F22">
+        <v>-0.06970172939473869</v>
+      </c>
+      <c r="G22">
+        <v>0.05389515334566077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.001171104587174685</v>
+        <v>0.005067706904797169</v>
       </c>
       <c r="C23">
-        <v>-0.01373392571668623</v>
+        <v>0.03196616982376715</v>
       </c>
       <c r="D23">
-        <v>0.03871852987151331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.08866246856051505</v>
+      </c>
+      <c r="E23">
+        <v>-0.056710678727889</v>
+      </c>
+      <c r="F23">
+        <v>-0.06977115547473316</v>
+      </c>
+      <c r="G23">
+        <v>0.05312447066658288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03893589048295502</v>
+        <v>0.03645264976742319</v>
       </c>
       <c r="C24">
-        <v>-0.05329356996554173</v>
+        <v>0.05557688346228627</v>
       </c>
       <c r="D24">
-        <v>0.04091144850115874</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05322290640640794</v>
+      </c>
+      <c r="E24">
+        <v>-0.04474296072796882</v>
+      </c>
+      <c r="F24">
+        <v>0.001867755350012521</v>
+      </c>
+      <c r="G24">
+        <v>-0.04623172659029885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04874365963103681</v>
+        <v>0.04255180422923648</v>
       </c>
       <c r="C25">
-        <v>-0.05939910000564783</v>
+        <v>0.0559734965334468</v>
       </c>
       <c r="D25">
-        <v>0.03951068167962176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.04959251263627685</v>
+      </c>
+      <c r="E25">
+        <v>-0.03742660198621756</v>
+      </c>
+      <c r="F25">
+        <v>-0.01471888486234006</v>
+      </c>
+      <c r="G25">
+        <v>-0.04917883738657005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02255446187117655</v>
+        <v>0.01889202337299977</v>
       </c>
       <c r="C26">
-        <v>-0.01969440755789474</v>
+        <v>0.02017749502961638</v>
       </c>
       <c r="D26">
-        <v>0.03674176876700536</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05542339721078513</v>
+      </c>
+      <c r="E26">
+        <v>-0.05347784677425008</v>
+      </c>
+      <c r="F26">
+        <v>0.007153808104977862</v>
+      </c>
+      <c r="G26">
+        <v>-0.008555681248714787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1150892540021571</v>
+        <v>0.1567837524130352</v>
       </c>
       <c r="C28">
-        <v>0.2552816221265188</v>
+        <v>-0.2537921408511705</v>
       </c>
       <c r="D28">
-        <v>-0.03370717979571834</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02567177251836525</v>
+      </c>
+      <c r="E28">
+        <v>-0.08190324219253889</v>
+      </c>
+      <c r="F28">
+        <v>-0.00690375798622093</v>
+      </c>
+      <c r="G28">
+        <v>-0.07551614414251025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009512488936536891</v>
+        <v>0.007210358271811461</v>
       </c>
       <c r="C29">
-        <v>-0.03041761550990173</v>
+        <v>0.02830371483611972</v>
       </c>
       <c r="D29">
-        <v>0.02604860236687976</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.05440637507819927</v>
+      </c>
+      <c r="E29">
+        <v>-0.07079945752573311</v>
+      </c>
+      <c r="F29">
+        <v>-0.007620125715118374</v>
+      </c>
+      <c r="G29">
+        <v>-0.04002085265569422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03927149923535857</v>
+        <v>0.04078404757873332</v>
       </c>
       <c r="C30">
-        <v>-0.04023147288395137</v>
+        <v>0.05435755598233873</v>
       </c>
       <c r="D30">
-        <v>0.1200998857939213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.150045246201668</v>
+      </c>
+      <c r="E30">
+        <v>-0.08444745731393086</v>
+      </c>
+      <c r="F30">
+        <v>0.003296162030213059</v>
+      </c>
+      <c r="G30">
+        <v>0.02351938111134771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0684669701613512</v>
+        <v>0.06345549426604112</v>
       </c>
       <c r="C31">
-        <v>-0.06288668891061702</v>
+        <v>0.06983123619516705</v>
       </c>
       <c r="D31">
-        <v>0.01337922610672699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03143386361559714</v>
+      </c>
+      <c r="E31">
+        <v>-0.06660652521319851</v>
+      </c>
+      <c r="F31">
+        <v>-0.04719387767861662</v>
+      </c>
+      <c r="G31">
+        <v>-0.02869449752503139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005832466723021354</v>
+        <v>0.003322169861201421</v>
       </c>
       <c r="C32">
-        <v>-0.02630599415095418</v>
+        <v>0.02898953838356741</v>
       </c>
       <c r="D32">
-        <v>0.04959928240688566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.06783016599574099</v>
+      </c>
+      <c r="E32">
+        <v>-0.1090762635367703</v>
+      </c>
+      <c r="F32">
+        <v>0.0149040067333047</v>
+      </c>
+      <c r="G32">
+        <v>-0.06165185166520601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03193384238978969</v>
+        <v>0.02695099576569896</v>
       </c>
       <c r="C33">
-        <v>-0.05046567732356211</v>
+        <v>0.0480515943036757</v>
       </c>
       <c r="D33">
-        <v>0.08896588525027929</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1103366198192764</v>
+      </c>
+      <c r="E33">
+        <v>-0.09168133010452971</v>
+      </c>
+      <c r="F33">
+        <v>-0.02187776961467432</v>
+      </c>
+      <c r="G33">
+        <v>-0.03895663024436513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04291509876446375</v>
+        <v>0.0377817093479583</v>
       </c>
       <c r="C34">
-        <v>-0.06621673052979621</v>
+        <v>0.06426168863851937</v>
       </c>
       <c r="D34">
-        <v>0.05625154432467749</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05793362965073036</v>
+      </c>
+      <c r="E34">
+        <v>-0.02235527173600173</v>
+      </c>
+      <c r="F34">
+        <v>0.0002348145223914295</v>
+      </c>
+      <c r="G34">
+        <v>-0.04966930173419911</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>5.901780008094914e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0006580153670258439</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0006578066252525428</v>
+      </c>
+      <c r="E35">
+        <v>0.0007668845897412832</v>
+      </c>
+      <c r="F35">
+        <v>0.0002371878787079089</v>
+      </c>
+      <c r="G35">
+        <v>0.0001794539832334095</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02413889906367408</v>
+        <v>0.01951359154400682</v>
       </c>
       <c r="C36">
-        <v>-0.02079503242349138</v>
+        <v>0.01672012892594357</v>
       </c>
       <c r="D36">
-        <v>0.03236587753693164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.05761107638852007</v>
+      </c>
+      <c r="E36">
+        <v>-0.06445471053922124</v>
+      </c>
+      <c r="F36">
+        <v>-0.005475200993187888</v>
+      </c>
+      <c r="G36">
+        <v>-0.03086464794699856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03473295926837686</v>
+        <v>0.02565565929826933</v>
       </c>
       <c r="C38">
-        <v>-0.03680884796980693</v>
+        <v>0.02646956550005022</v>
       </c>
       <c r="D38">
-        <v>0.01702028959395631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0470038667098486</v>
+      </c>
+      <c r="E38">
+        <v>-0.05125663558988446</v>
+      </c>
+      <c r="F38">
+        <v>-0.006315294921440714</v>
+      </c>
+      <c r="G38">
+        <v>0.01433325331072516</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04915820714423263</v>
+        <v>0.04213936555722091</v>
       </c>
       <c r="C39">
-        <v>-0.06252760121242568</v>
+        <v>0.06244508488360307</v>
       </c>
       <c r="D39">
-        <v>0.06049427007968661</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.08442557910846547</v>
+      </c>
+      <c r="E39">
+        <v>-0.04782174365920046</v>
+      </c>
+      <c r="F39">
+        <v>0.02056423361704184</v>
+      </c>
+      <c r="G39">
+        <v>-0.03016275728556918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.009725761496311281</v>
+        <v>0.01365454456893669</v>
       </c>
       <c r="C40">
-        <v>-0.05538561087884352</v>
+        <v>0.04011299661471154</v>
       </c>
       <c r="D40">
-        <v>0.04077681319785886</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.06708081699758026</v>
+      </c>
+      <c r="E40">
+        <v>-0.1180941829873451</v>
+      </c>
+      <c r="F40">
+        <v>-0.04553774181395133</v>
+      </c>
+      <c r="G40">
+        <v>-0.007533371960461724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02773610421736555</v>
+        <v>0.02241492396782733</v>
       </c>
       <c r="C41">
-        <v>-0.01360689951445191</v>
+        <v>0.01070269358809767</v>
       </c>
       <c r="D41">
-        <v>0.0290810919851823</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0390416849889862</v>
+      </c>
+      <c r="E41">
+        <v>-0.07220671817356249</v>
+      </c>
+      <c r="F41">
+        <v>-0.008853464752497459</v>
+      </c>
+      <c r="G41">
+        <v>-0.02386476626787853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04874309191370882</v>
+        <v>0.03304048849507844</v>
       </c>
       <c r="C43">
-        <v>-0.03316334989535551</v>
+        <v>0.02326227492722312</v>
       </c>
       <c r="D43">
-        <v>0.06024584264926409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.07130616983042246</v>
+      </c>
+      <c r="E43">
+        <v>-0.07523070076425895</v>
+      </c>
+      <c r="F43">
+        <v>-0.03039719967444178</v>
+      </c>
+      <c r="G43">
+        <v>-0.03295464712331896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01477031017051214</v>
+        <v>0.01768600448342482</v>
       </c>
       <c r="C44">
-        <v>-0.0665946902169274</v>
+        <v>0.04796625644165215</v>
       </c>
       <c r="D44">
-        <v>0.03921814454618459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07025247761281085</v>
+      </c>
+      <c r="E44">
+        <v>-0.1009756467092862</v>
+      </c>
+      <c r="F44">
+        <v>0.009253951883994121</v>
+      </c>
+      <c r="G44">
+        <v>-0.02589762050916345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01704584304593095</v>
+        <v>0.01503716259869756</v>
       </c>
       <c r="C46">
-        <v>-0.03215865867842718</v>
+        <v>0.03270138777012388</v>
       </c>
       <c r="D46">
-        <v>0.02555197293179557</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.05331808116744598</v>
+      </c>
+      <c r="E46">
+        <v>-0.07864318999276948</v>
+      </c>
+      <c r="F46">
+        <v>0.008822279606044158</v>
+      </c>
+      <c r="G46">
+        <v>-0.05761256425863272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0932481486961145</v>
+        <v>0.09323253606082732</v>
       </c>
       <c r="C47">
-        <v>-0.08372167717580085</v>
+        <v>0.08889570292901673</v>
       </c>
       <c r="D47">
-        <v>-0.009107587020891258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008453463320657191</v>
+      </c>
+      <c r="E47">
+        <v>-0.05606977359888245</v>
+      </c>
+      <c r="F47">
+        <v>-0.0326371933052359</v>
+      </c>
+      <c r="G47">
+        <v>-0.06298433866583231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02864214306706859</v>
+        <v>0.02271534971761328</v>
       </c>
       <c r="C48">
-        <v>-0.02247590573279242</v>
+        <v>0.02165640241011204</v>
       </c>
       <c r="D48">
-        <v>0.02277718742482022</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05278836164712045</v>
+      </c>
+      <c r="E48">
+        <v>-0.07767688569660315</v>
+      </c>
+      <c r="F48">
+        <v>0.002121870963085737</v>
+      </c>
+      <c r="G48">
+        <v>-0.03649285732804699</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08649950002616433</v>
+        <v>0.07363085712685973</v>
       </c>
       <c r="C50">
-        <v>-0.1009441019484339</v>
+        <v>0.08106444931860546</v>
       </c>
       <c r="D50">
-        <v>0.003795996478611666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03386599150051488</v>
+      </c>
+      <c r="E50">
+        <v>-0.07459019960140247</v>
+      </c>
+      <c r="F50">
+        <v>-0.05275789559477724</v>
+      </c>
+      <c r="G50">
+        <v>-0.01541507784789753</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01539869926541237</v>
+        <v>0.01244795360567533</v>
       </c>
       <c r="C51">
-        <v>-0.04193908787583699</v>
+        <v>0.02607838691047707</v>
       </c>
       <c r="D51">
-        <v>0.08218898417104495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08510472958497872</v>
+      </c>
+      <c r="E51">
+        <v>-0.06009159813954698</v>
+      </c>
+      <c r="F51">
+        <v>0.006180365348937514</v>
+      </c>
+      <c r="G51">
+        <v>-0.008221339610151809</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08194553841999749</v>
+        <v>0.09713200645378567</v>
       </c>
       <c r="C53">
-        <v>-0.09342367844231189</v>
+        <v>0.0963269540775397</v>
       </c>
       <c r="D53">
-        <v>-0.03247650772406074</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02941296046897951</v>
+      </c>
+      <c r="E53">
+        <v>-0.0919126339413219</v>
+      </c>
+      <c r="F53">
+        <v>-0.03208462038000688</v>
+      </c>
+      <c r="G53">
+        <v>-0.08160096808332205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.04170411989091501</v>
+        <v>0.03219543755359056</v>
       </c>
       <c r="C54">
-        <v>-0.03658313746493981</v>
+        <v>0.03360250106905579</v>
       </c>
       <c r="D54">
-        <v>0.04060290159794273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.06458162352281921</v>
+      </c>
+      <c r="E54">
+        <v>-0.07316813281192269</v>
+      </c>
+      <c r="F54">
+        <v>0.003873815034349368</v>
+      </c>
+      <c r="G54">
+        <v>-0.03675766325453802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08639403887287665</v>
+        <v>0.0936784009856651</v>
       </c>
       <c r="C55">
-        <v>-0.07172586525424461</v>
+        <v>0.07842485859242562</v>
       </c>
       <c r="D55">
-        <v>-0.03165079253854933</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02959467772782637</v>
+      </c>
+      <c r="E55">
+        <v>-0.05043717517048776</v>
+      </c>
+      <c r="F55">
+        <v>-0.0346636544685119</v>
+      </c>
+      <c r="G55">
+        <v>-0.03732711550431073</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1452795930543411</v>
+        <v>0.1499215847208916</v>
       </c>
       <c r="C56">
-        <v>-0.1032145817645613</v>
+        <v>0.1139679838336667</v>
       </c>
       <c r="D56">
-        <v>-0.03486505820626995</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03650664414419988</v>
+      </c>
+      <c r="E56">
+        <v>-0.04452471140457579</v>
+      </c>
+      <c r="F56">
+        <v>-0.0266174196485753</v>
+      </c>
+      <c r="G56">
+        <v>-0.05074017760981547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04901319535981907</v>
+        <v>0.03889968345519846</v>
       </c>
       <c r="C58">
-        <v>0.001448485383000579</v>
+        <v>0.01589631379162209</v>
       </c>
       <c r="D58">
-        <v>0.3315880359551142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3340718645199397</v>
+      </c>
+      <c r="E58">
+        <v>-0.2796346078224146</v>
+      </c>
+      <c r="F58">
+        <v>-0.1261981406962956</v>
+      </c>
+      <c r="G58">
+        <v>0.48636673541752</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1387865853991147</v>
+        <v>0.1535257521443129</v>
       </c>
       <c r="C59">
-        <v>0.2000438048293164</v>
+        <v>-0.1866343123824662</v>
       </c>
       <c r="D59">
-        <v>0.02071201358188146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0352477568032654</v>
+      </c>
+      <c r="E59">
+        <v>-0.02829802328676206</v>
+      </c>
+      <c r="F59">
+        <v>0.03070343170106311</v>
+      </c>
+      <c r="G59">
+        <v>0.01316995166516834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2563655356651428</v>
+        <v>0.2397834368900263</v>
       </c>
       <c r="C60">
-        <v>-0.06532928041671092</v>
+        <v>0.07688294077128438</v>
       </c>
       <c r="D60">
-        <v>0.1900511420029123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1804526563563914</v>
+      </c>
+      <c r="E60">
+        <v>0.2944442738945691</v>
+      </c>
+      <c r="F60">
+        <v>-0.09170563292286778</v>
+      </c>
+      <c r="G60">
+        <v>0.02139257324070928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04947283912476538</v>
+        <v>0.04476260445922245</v>
       </c>
       <c r="C61">
-        <v>-0.05578871999132098</v>
+        <v>0.05666909239026527</v>
       </c>
       <c r="D61">
-        <v>0.06258388828943956</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.07410336781848986</v>
+      </c>
+      <c r="E61">
+        <v>-0.04906502334367572</v>
+      </c>
+      <c r="F61">
+        <v>0.001007153121534806</v>
+      </c>
+      <c r="G61">
+        <v>-0.04542337121406193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01754255526522095</v>
+        <v>0.01768379701059695</v>
       </c>
       <c r="C63">
-        <v>-0.03233111771765305</v>
+        <v>0.02951917463894045</v>
       </c>
       <c r="D63">
-        <v>0.0146553954592738</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.04887994228507034</v>
+      </c>
+      <c r="E63">
+        <v>-0.07460012036921938</v>
+      </c>
+      <c r="F63">
+        <v>-0.02704151852691273</v>
+      </c>
+      <c r="G63">
+        <v>-0.02118508085002734</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05630462324310849</v>
+        <v>0.05853232384613671</v>
       </c>
       <c r="C64">
-        <v>-0.0547733336745306</v>
+        <v>0.06756179384044671</v>
       </c>
       <c r="D64">
-        <v>0.04438469917463815</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0431327075513708</v>
+      </c>
+      <c r="E64">
+        <v>-0.04244652483994925</v>
+      </c>
+      <c r="F64">
+        <v>0.01878623399950185</v>
+      </c>
+      <c r="G64">
+        <v>-0.07367633167539783</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07266880234543537</v>
+        <v>0.06020842716481142</v>
       </c>
       <c r="C65">
-        <v>-0.03050784467090803</v>
+        <v>0.02648867157989884</v>
       </c>
       <c r="D65">
-        <v>0.08935663555207832</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1154211800726726</v>
+      </c>
+      <c r="E65">
+        <v>-0.03220286637122757</v>
+      </c>
+      <c r="F65">
+        <v>-0.02731229061615812</v>
+      </c>
+      <c r="G65">
+        <v>0.03481751683359581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0582132330091479</v>
+        <v>0.05197763787512445</v>
       </c>
       <c r="C66">
-        <v>-0.06819751071454785</v>
+        <v>0.07131628327456647</v>
       </c>
       <c r="D66">
-        <v>0.08287970725006764</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1053757206793325</v>
+      </c>
+      <c r="E66">
+        <v>-0.0553506293960325</v>
+      </c>
+      <c r="F66">
+        <v>-0.001442042819955085</v>
+      </c>
+      <c r="G66">
+        <v>-0.02312086089889603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0547928528001334</v>
+        <v>0.04449613083751382</v>
       </c>
       <c r="C67">
-        <v>-0.037947378153645</v>
+        <v>0.03021478487002873</v>
       </c>
       <c r="D67">
-        <v>0.0007690818640391917</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01917520693135432</v>
+      </c>
+      <c r="E67">
+        <v>-0.02510188933470018</v>
+      </c>
+      <c r="F67">
+        <v>-0.006579614991432634</v>
+      </c>
+      <c r="G67">
+        <v>0.006167643357271042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1486596746681348</v>
+        <v>0.1646006735940786</v>
       </c>
       <c r="C68">
-        <v>0.2764400486930063</v>
+        <v>-0.2348355046728085</v>
       </c>
       <c r="D68">
-        <v>-0.04575376348091345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01320900500339424</v>
+      </c>
+      <c r="E68">
+        <v>-0.05911676016142094</v>
+      </c>
+      <c r="F68">
+        <v>-0.02649029352629234</v>
+      </c>
+      <c r="G68">
+        <v>0.01226264209514387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0947147378749463</v>
+        <v>0.08892364018435399</v>
       </c>
       <c r="C69">
-        <v>-0.09704634719454473</v>
+        <v>0.1024053289182137</v>
       </c>
       <c r="D69">
-        <v>-0.001139288937179561</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02486131289010943</v>
+      </c>
+      <c r="E69">
+        <v>-0.05671942218650491</v>
+      </c>
+      <c r="F69">
+        <v>-0.01137164179979641</v>
+      </c>
+      <c r="G69">
+        <v>-0.05642954418820934</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1339488304645824</v>
+        <v>0.1571823584243467</v>
       </c>
       <c r="C71">
-        <v>0.251630151589177</v>
+        <v>-0.2345835224900683</v>
       </c>
       <c r="D71">
-        <v>0.001486995890987718</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01234038240093248</v>
+      </c>
+      <c r="E71">
+        <v>-0.06863366572528468</v>
+      </c>
+      <c r="F71">
+        <v>-0.03052095582668411</v>
+      </c>
+      <c r="G71">
+        <v>-0.05355536564332129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09864559133372444</v>
+        <v>0.1039075332950385</v>
       </c>
       <c r="C72">
-        <v>-0.06205793126250074</v>
+        <v>0.05875654009787584</v>
       </c>
       <c r="D72">
-        <v>0.0565956480943868</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07737917148855752</v>
+      </c>
+      <c r="E72">
+        <v>-0.01907971858161086</v>
+      </c>
+      <c r="F72">
+        <v>-0.02996440147221598</v>
+      </c>
+      <c r="G72">
+        <v>-0.05192113936159139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3368395295521378</v>
+        <v>0.2939890864926949</v>
       </c>
       <c r="C73">
-        <v>0.002607752833561963</v>
+        <v>0.04245836238489326</v>
       </c>
       <c r="D73">
-        <v>0.4674827678087133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.385153058816131</v>
+      </c>
+      <c r="E73">
+        <v>0.6194182339689617</v>
+      </c>
+      <c r="F73">
+        <v>-0.09338506238225408</v>
+      </c>
+      <c r="G73">
+        <v>0.0643693489502055</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1000616392049679</v>
+        <v>0.1067991688786112</v>
       </c>
       <c r="C74">
-        <v>-0.09626939496389561</v>
+        <v>0.09391478555297744</v>
       </c>
       <c r="D74">
-        <v>-0.01617543710863584</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02885341045782568</v>
+      </c>
+      <c r="E74">
+        <v>-0.0668648949192915</v>
+      </c>
+      <c r="F74">
+        <v>-0.05070697166354748</v>
+      </c>
+      <c r="G74">
+        <v>-0.03780058750959303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.251865422511699</v>
+        <v>0.2540662641380866</v>
       </c>
       <c r="C75">
-        <v>-0.1242012105242871</v>
+        <v>0.1422287269781735</v>
       </c>
       <c r="D75">
-        <v>-0.1356321008550812</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1428521163208897</v>
+      </c>
+      <c r="E75">
+        <v>-0.03604961047990504</v>
+      </c>
+      <c r="F75">
+        <v>0.002632690291363573</v>
+      </c>
+      <c r="G75">
+        <v>-0.04234603074132057</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1149086410877203</v>
+        <v>0.1284269133551054</v>
       </c>
       <c r="C76">
-        <v>-0.1090988934291388</v>
+        <v>0.106065090705736</v>
       </c>
       <c r="D76">
-        <v>-0.04319271039196931</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04422056624595766</v>
+      </c>
+      <c r="E76">
+        <v>-0.09522254956051925</v>
+      </c>
+      <c r="F76">
+        <v>-0.01264386136320521</v>
+      </c>
+      <c r="G76">
+        <v>-0.05313573647089272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08584902001893327</v>
+        <v>0.06787644655596499</v>
       </c>
       <c r="C77">
-        <v>-0.03700099035264851</v>
+        <v>0.06314977497223587</v>
       </c>
       <c r="D77">
-        <v>0.0877643880488513</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1080488398034163</v>
+      </c>
+      <c r="E77">
+        <v>-0.1138828155794682</v>
+      </c>
+      <c r="F77">
+        <v>0.2505956963338089</v>
+      </c>
+      <c r="G77">
+        <v>0.1355222043840449</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0430196031193761</v>
+        <v>0.04487619286386293</v>
       </c>
       <c r="C78">
-        <v>-0.04053143283009532</v>
+        <v>0.05566709649842033</v>
       </c>
       <c r="D78">
-        <v>0.07842914106889698</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1076614460176531</v>
+      </c>
+      <c r="E78">
+        <v>-0.05690459005431014</v>
+      </c>
+      <c r="F78">
+        <v>-0.000701626569224659</v>
+      </c>
+      <c r="G78">
+        <v>-0.03607050719080472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001884139397119066</v>
+        <v>0.03814068953224711</v>
       </c>
       <c r="C79">
-        <v>0.001559094314894093</v>
+        <v>0.06214730655170784</v>
       </c>
       <c r="D79">
-        <v>0.009169368812126733</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06956911834963085</v>
+      </c>
+      <c r="E79">
+        <v>-0.09415424459733884</v>
+      </c>
+      <c r="F79">
+        <v>-0.05571053047137407</v>
+      </c>
+      <c r="G79">
+        <v>-0.3139367394947786</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03395384309447032</v>
+        <v>0.02869305167216109</v>
       </c>
       <c r="C80">
-        <v>-0.04006782926607542</v>
+        <v>0.04320500666045524</v>
       </c>
       <c r="D80">
-        <v>0.03295163393993094</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03955549998521687</v>
+      </c>
+      <c r="E80">
+        <v>-0.0170583453185571</v>
+      </c>
+      <c r="F80">
+        <v>0.04792420480252115</v>
+      </c>
+      <c r="G80">
+        <v>0.01068768805140333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1493775746132869</v>
+        <v>0.1423098305344759</v>
       </c>
       <c r="C81">
-        <v>-0.1058005576463094</v>
+        <v>0.1101230322183037</v>
       </c>
       <c r="D81">
-        <v>-0.09795179091395528</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09959182033312229</v>
+      </c>
+      <c r="E81">
+        <v>-0.08052730575877901</v>
+      </c>
+      <c r="F81">
+        <v>-0.01344179295644977</v>
+      </c>
+      <c r="G81">
+        <v>-0.04445956566027941</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2292289647984729</v>
+        <v>0.24219404100458</v>
       </c>
       <c r="C82">
-        <v>-0.1566331678525762</v>
+        <v>0.2002050612020015</v>
       </c>
       <c r="D82">
-        <v>-0.1687460230237592</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2266383792586394</v>
+      </c>
+      <c r="E82">
+        <v>0.07913397373701642</v>
+      </c>
+      <c r="F82">
+        <v>0.04755616650184843</v>
+      </c>
+      <c r="G82">
+        <v>-0.3443322349300249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04038614144133731</v>
+        <v>0.02676190650643422</v>
       </c>
       <c r="C83">
-        <v>-0.04041044780071287</v>
+        <v>0.04993776710764559</v>
       </c>
       <c r="D83">
-        <v>0.06640866884849668</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04529781209537938</v>
+      </c>
+      <c r="E83">
+        <v>-0.01704950807278055</v>
+      </c>
+      <c r="F83">
+        <v>0.02129748002680217</v>
+      </c>
+      <c r="G83">
+        <v>0.005947423777649545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.680357773953287e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002708058341093434</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.002038627826947351</v>
+      </c>
+      <c r="E84">
+        <v>-0.008380591570290421</v>
+      </c>
+      <c r="F84">
+        <v>-0.002889225613847176</v>
+      </c>
+      <c r="G84">
+        <v>0.008394058956667618</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1958084051576741</v>
+        <v>0.1845896641077633</v>
       </c>
       <c r="C85">
-        <v>-0.1110268238761195</v>
+        <v>0.1188274785750997</v>
       </c>
       <c r="D85">
-        <v>-0.1253532019362924</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1157837020257494</v>
+      </c>
+      <c r="E85">
+        <v>-0.01708297070612505</v>
+      </c>
+      <c r="F85">
+        <v>-0.04571010967646075</v>
+      </c>
+      <c r="G85">
+        <v>-0.09745363930265326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01267810606963471</v>
+        <v>0.01619934388072933</v>
       </c>
       <c r="C86">
-        <v>-0.03222595588400147</v>
+        <v>0.01794665732768094</v>
       </c>
       <c r="D86">
-        <v>0.1082799890819784</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.09999334331104756</v>
+      </c>
+      <c r="E86">
+        <v>-0.07002181433844011</v>
+      </c>
+      <c r="F86">
+        <v>0.01086881282701913</v>
+      </c>
+      <c r="G86">
+        <v>-0.04026356195674433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03420820460362421</v>
+        <v>0.03402792662880635</v>
       </c>
       <c r="C87">
-        <v>0.003255202324709386</v>
+        <v>0.0155787075563734</v>
       </c>
       <c r="D87">
-        <v>0.1015506922843363</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1261548272164585</v>
+      </c>
+      <c r="E87">
+        <v>-0.116082360499496</v>
+      </c>
+      <c r="F87">
+        <v>0.05313812612746736</v>
+      </c>
+      <c r="G87">
+        <v>0.03674190485966073</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.103576188036545</v>
+        <v>0.08885743787344291</v>
       </c>
       <c r="C88">
-        <v>-0.08231304741675739</v>
+        <v>0.06470416311079118</v>
       </c>
       <c r="D88">
-        <v>-0.0006697618730568548</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01875655842055863</v>
+      </c>
+      <c r="E88">
+        <v>-0.05551985825716679</v>
+      </c>
+      <c r="F88">
+        <v>-0.02053080231970511</v>
+      </c>
+      <c r="G88">
+        <v>-0.04651058726997466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2081924992785044</v>
+        <v>0.2362543870212087</v>
       </c>
       <c r="C89">
-        <v>0.362246564104231</v>
+        <v>-0.3710174172759461</v>
       </c>
       <c r="D89">
-        <v>-0.06391139819987103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02057274278137151</v>
+      </c>
+      <c r="E89">
+        <v>-0.1040124909477749</v>
+      </c>
+      <c r="F89">
+        <v>0.06157476492569008</v>
+      </c>
+      <c r="G89">
+        <v>-0.03193541012947144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1983541510662503</v>
+        <v>0.2139703883858635</v>
       </c>
       <c r="C90">
-        <v>0.3053262856647419</v>
+        <v>-0.2916351378059895</v>
       </c>
       <c r="D90">
-        <v>-0.04014266481086737</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.002539158905798778</v>
+      </c>
+      <c r="E90">
+        <v>-0.06340911675831284</v>
+      </c>
+      <c r="F90">
+        <v>-0.01011535903848404</v>
+      </c>
+      <c r="G90">
+        <v>0.01954192698094765</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1900707750650199</v>
+        <v>0.1842362706012152</v>
       </c>
       <c r="C91">
-        <v>-0.1585130850582982</v>
+        <v>0.1604301242179376</v>
       </c>
       <c r="D91">
-        <v>-0.1039766830511368</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1083685048185648</v>
+      </c>
+      <c r="E91">
+        <v>-0.0636144488877728</v>
+      </c>
+      <c r="F91">
+        <v>-0.02253917130308751</v>
+      </c>
+      <c r="G91">
+        <v>-0.04500953230770406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1833291364106363</v>
+        <v>0.1958448234077558</v>
       </c>
       <c r="C92">
-        <v>0.2559877538074369</v>
+        <v>-0.275732303708101</v>
       </c>
       <c r="D92">
-        <v>0.007153911081074881</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.008004542019511863</v>
+      </c>
+      <c r="E92">
+        <v>-0.08653649165319958</v>
+      </c>
+      <c r="F92">
+        <v>0.03280151631753396</v>
+      </c>
+      <c r="G92">
+        <v>-0.03216583116552089</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.220602003282857</v>
+        <v>0.2341365557188435</v>
       </c>
       <c r="C93">
-        <v>0.3180574167201024</v>
+        <v>-0.3048551424192682</v>
       </c>
       <c r="D93">
-        <v>-0.04470793894539914</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01815578810446916</v>
+      </c>
+      <c r="E93">
+        <v>-0.04101321039603357</v>
+      </c>
+      <c r="F93">
+        <v>-0.0276596087796586</v>
+      </c>
+      <c r="G93">
+        <v>-0.03353463032740597</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3606719950064218</v>
+        <v>0.345119365546739</v>
       </c>
       <c r="C94">
-        <v>-0.2012394565097928</v>
+        <v>0.2124481861559766</v>
       </c>
       <c r="D94">
-        <v>-0.5107844084945554</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4487772052068215</v>
+      </c>
+      <c r="E94">
+        <v>-0.01509528363542481</v>
+      </c>
+      <c r="F94">
+        <v>0.07155801530821361</v>
+      </c>
+      <c r="G94">
+        <v>0.6239728637689325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08970004177900513</v>
+        <v>0.06579382556223058</v>
       </c>
       <c r="C95">
-        <v>-0.00226879663057251</v>
+        <v>0.03749849590286358</v>
       </c>
       <c r="D95">
-        <v>0.1657265280708476</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1498362825152505</v>
+      </c>
+      <c r="E95">
+        <v>0.05123812444077998</v>
+      </c>
+      <c r="F95">
+        <v>0.9129670970863245</v>
+      </c>
+      <c r="G95">
+        <v>-0.02737715961662487</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1798534864273201</v>
+        <v>0.1786151724853765</v>
       </c>
       <c r="C98">
-        <v>-0.01018164844530951</v>
+        <v>0.04221425579819675</v>
       </c>
       <c r="D98">
-        <v>0.2204182806852469</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1973205455170884</v>
+      </c>
+      <c r="E98">
+        <v>0.2307435001889149</v>
+      </c>
+      <c r="F98">
+        <v>-0.0768915006493638</v>
+      </c>
+      <c r="G98">
+        <v>-0.009042210559254785</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009381172497296697</v>
+        <v>0.007324692078101004</v>
       </c>
       <c r="C101">
-        <v>-0.02982692363767563</v>
+        <v>0.02744716101605222</v>
       </c>
       <c r="D101">
-        <v>0.02585907403547394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.05427032478741041</v>
+      </c>
+      <c r="E101">
+        <v>-0.07178703178269785</v>
+      </c>
+      <c r="F101">
+        <v>-0.006663139417328442</v>
+      </c>
+      <c r="G101">
+        <v>-0.04061696921104242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1186893638679379</v>
+        <v>0.1193835326645196</v>
       </c>
       <c r="C102">
-        <v>-0.08321638409360652</v>
+        <v>0.1094763111676128</v>
       </c>
       <c r="D102">
-        <v>-0.03653862371409258</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0494409631870416</v>
+      </c>
+      <c r="E102">
+        <v>0.001726638732943834</v>
+      </c>
+      <c r="F102">
+        <v>0.02810155707808859</v>
+      </c>
+      <c r="G102">
+        <v>-0.0531369440900149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
